--- a/F7_propiedades_fisicas.xlsx
+++ b/F7_propiedades_fisicas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="propiedadesFisicasComuna" sheetId="1" r:id="rId1"/>
@@ -395,8 +395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,7 +577,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,7 +758,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
